--- a/students.xlsx
+++ b/students.xlsx
@@ -12,7 +12,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Пудов Аркадий</t>
+  </si>
+  <si>
+    <t>Карамышев Антон</t>
+  </si>
+  <si>
+    <t>Иванов Иван</t>
+  </si>
+  <si>
+    <t>Петров Петр</t>
+  </si>
+  <si>
+    <t>Колокольникова Мария</t>
+  </si>
+  <si>
+    <t>Палкина Анна</t>
+  </si>
+  <si>
+    <t>Перов Семен</t>
+  </si>
+  <si>
+    <t>Пупкин Василий</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,170 +90,170 @@
       <c r="A1" t="n">
         <v>1.0</v>
       </c>
-      <c r="B1" t="n">
-        <v>0.0</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>4.0</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5.0</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.0</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6.0</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7.0</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.0</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8.0</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9.0</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.0</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10.0</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0</v>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
